--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047C2607-FCC2-4765-AA26-3371A2444900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B79437-281B-422C-91D9-C35655BB2CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
   <si>
     <t>Year</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>250th Anniversary - Guard of Finance</t>
   </si>
 </sst>
 </file>
@@ -573,15 +576,14 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -671,6 +673,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -692,9 +703,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="13" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -963,13 +974,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1664,7 +1675,7 @@
         <v>38</v>
       </c>
       <c r="F29" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="11" t="str">
         <f t="shared" ref="G29:G30" si="3">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
@@ -1688,7 +1699,7 @@
         <v>38</v>
       </c>
       <c r="F30" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="11" t="str">
         <f t="shared" si="3"/>
@@ -1712,7 +1723,7 @@
         <v>38</v>
       </c>
       <c r="F31" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="11" t="str">
         <f t="shared" ref="G31:G32" si="4">IF(OR(AND(F31&gt;1,F31&lt;&gt;"-")),"Can exchange","")</f>
@@ -1760,7 +1771,7 @@
         <v>38</v>
       </c>
       <c r="F33" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="11" t="str">
         <f t="shared" ref="G33" si="5">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
@@ -1784,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="F34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="11" t="str">
         <f t="shared" ref="G34:G36" si="6">IF(OR(AND(F34&gt;1,F34&lt;&gt;"-")),"Can exchange","")</f>
@@ -1808,7 +1819,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="11" t="str">
         <f t="shared" si="6"/>
@@ -1837,6 +1848,26 @@
       <c r="G36" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>2024</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1847,11 +1878,45 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1863,29 +1928,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1897,12 +1945,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1914,12 +1979,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1931,12 +1996,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1948,12 +2013,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1965,12 +2030,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1982,12 +2047,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1999,29 +2064,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2044,7 +2092,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B79437-281B-422C-91D9-C35655BB2CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE5FBA8-3639-4A67-B53E-3484A6B6A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24580" yWindow="1710" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -980,7 +980,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1255,7 +1255,7 @@
         <v>2012</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>62</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F12&gt;1,F12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>62</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F13&gt;1,F13&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
         <v>2016</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>62</v>
@@ -1483,10 +1483,10 @@
         <v>37</v>
       </c>
       <c r="F21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>62</v>
@@ -1507,10 +1507,10 @@
         <v>37</v>
       </c>
       <c r="F22" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+  <conditionalFormatting sqref="F5 F7 F9 F11:F12 F15 F17 F19 F22:F23 F25 F27">
     <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27">
+  <conditionalFormatting sqref="F5 F7 F9 F11:F12 F15 F17 F19 F22:F23 F25 F27">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1894,12 +1894,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F13:F14 F16 F18 F20:F21 F24 F26 F28">
     <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F13:F14 F16 F18 F20:F21 F24 F26 F28">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE5FBA8-3639-4A67-B53E-3484A6B6A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64DC0A0-AF34-432A-B440-DEA59A75CF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24580" yWindow="1710" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -578,6 +578,15 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -673,15 +682,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -703,9 +703,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="13" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -980,7 +980,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1170,7 +1170,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1878,11 +1878,11 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="F5 F7 F9 F11:F12 F15 F17 F19 F22:F23 F25 F27">
-    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F7 F9 F11:F12 F15 F17 F19 F22:F23 F25 F27">
+  <conditionalFormatting sqref="F7 F5 F9 F11:F12 F15 F17 F19 F22:F23 F25 F27">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1895,11 +1895,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4 F6 F8 F10 F13:F14 F16 F18 F20:F21 F24 F26 F28">
-    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F13:F14 F16 F18 F20:F21 F24 F26 F28">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F13:F14 F16 F18 F20:F21 F24 F26 F28">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1912,7 +1912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1929,7 +1929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1946,7 +1946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1963,7 +1963,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1980,7 +1980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1997,7 +1997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2014,7 +2014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2031,7 +2031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2048,7 +2048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2065,7 +2065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64DC0A0-AF34-432A-B440-DEA59A75CF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D8E16C-744F-4BB3-B631-70A69F4C349D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
   <si>
     <t>Year</t>
   </si>
@@ -91,12 +91,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>50th Anniversary - Signing of the Treaty of Rome</t>
   </si>
   <si>
@@ -299,6 +293,30 @@
   </si>
   <si>
     <t>250th Anniversary - Guard of Finance</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Treaty of Rome</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
   </si>
 </sst>
 </file>
@@ -401,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -429,28 +447,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,6 +490,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -523,7 +528,7 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -555,19 +560,19 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,15 +582,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -682,6 +678,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -703,9 +708,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="13" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -974,899 +979,947 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="5" width="25.90625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2004</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11" t="str">
-        <f t="shared" ref="G3" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <f t="shared" ref="H3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11" t="str">
-        <f t="shared" ref="G4:G27" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="str">
+        <f t="shared" ref="H4:H27" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2006</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="str">
+        <v>39</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2007</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="10">
+        <v>75</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="11" t="str">
+      <c r="H6" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2008</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="10">
+        <v>40</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="str">
+      <c r="H7" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2009</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11" t="str">
+        <v>76</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2009</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="10">
+        <v>41</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="11" t="str">
+      <c r="H9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2010</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="str">
+        <v>42</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2011</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="str">
+        <v>43</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2012</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="str">
-        <f>IF(OR(AND(F12&gt;1,F12&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <f>IF(OR(AND(G12&gt;1,G12&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="str">
-        <f>IF(OR(AND(F13&gt;1,F13&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f>IF(OR(AND(G13&gt;1,G13&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11" t="str">
+        <v>46</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2013</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11" t="str">
+        <v>45</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2014</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11" t="str">
+        <v>47</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2014</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11" t="str">
+        <v>48</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2015</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11" t="str">
+        <v>49</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2015</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2015</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="11" t="str">
+        <v>78</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2016</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11" t="str">
-        <f>IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="str">
+        <f>IF(OR(AND(G21&gt;1,G21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2016</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="10">
+        <v>52</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="10">
         <v>0</v>
       </c>
-      <c r="G22" s="11" t="str">
-        <f>IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="11" t="str">
+        <f>IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2017</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="10">
+        <v>53</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="G23" s="11" t="str">
+      <c r="H23" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2017</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11" t="str">
+        <v>54</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2018</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="10">
+        <v>55</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="10">
         <v>2</v>
       </c>
-      <c r="G25" s="11" t="str">
+      <c r="H25" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2018</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11" t="str">
+        <v>56</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>2019</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11" t="str">
+        <v>57</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>2020</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="10">
-        <v>1</v>
-      </c>
-      <c r="G28" s="11" t="str">
-        <f t="shared" ref="G28" si="2">IF(OR(AND(F28&gt;1,F28&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f t="shared" ref="H28" si="2">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>2020</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11" t="str">
-        <f t="shared" ref="G29:G30" si="3">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11" t="str">
+        <f t="shared" ref="H29:H30" si="3">IF(OR(AND(G29&gt;1,G29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>2021</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11" t="str">
+        <v>64</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>2021</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11" t="str">
-        <f t="shared" ref="G31:G32" si="4">IF(OR(AND(F31&gt;1,F31&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11" t="str">
+        <f t="shared" ref="H31:H32" si="4">IF(OR(AND(G31&gt;1,G31&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>2022</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="11" t="str">
+        <v>63</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>2022</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-      <c r="G33" s="11" t="str">
-        <f t="shared" ref="G33" si="5">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11" t="str">
+        <f t="shared" ref="H33" si="5">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>2022</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-      <c r="G34" s="11" t="str">
-        <f t="shared" ref="G34:G36" si="6">IF(OR(AND(F34&gt;1,F34&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11" t="str">
+        <f t="shared" ref="H34:H36" si="6">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>2023</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="11" t="str">
+        <v>68</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>2023</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="11" t="str">
+        <v>69</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>2024</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="10">
+        <v>71</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1874,15 +1927,15 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F5 F7 F9 F11:F12 F15 F17 F19 F22:F23 F25 F27">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7 F5 F9 F11:F12 F15 F17 F19 F22:F23 F25 F27">
+  <conditionalFormatting sqref="G5 G7 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 G7 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1894,12 +1947,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F13:F14 F16 F18 F20:F21 F24 F26 F28">
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F13:F14 F16 F18 F20:F21 F24 F26 F28">
+  <conditionalFormatting sqref="G4 G6 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4 G6 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1911,12 +1964,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1928,12 +1981,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="G31">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1945,12 +1998,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1962,12 +2015,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1979,12 +2032,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1996,12 +2049,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2013,12 +2066,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="G36">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2030,12 +2083,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2047,12 +2100,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2064,12 +2117,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="G37">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2104,13 +2157,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2118,10 +2171,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2129,10 +2182,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2140,10 +2193,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2151,10 +2204,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2162,10 +2215,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2173,10 +2226,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D8E16C-744F-4BB3-B631-70A69F4C349D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E7F702-F1F4-4392-B5FB-9E5105396C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -583,6 +583,15 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -678,15 +687,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -708,9 +708,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="13" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -985,7 +985,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1543,7 +1543,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="11" t="str">
         <f>IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
@@ -1931,11 +1931,11 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G5 G7 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
-    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G7 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
+  <conditionalFormatting sqref="G7 G5 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1948,11 +1948,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G6 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
-    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
+  <conditionalFormatting sqref="G6 G4 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1965,7 +1965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1982,7 +1982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1999,7 +1999,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2016,7 +2016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2033,7 +2033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2050,7 +2050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2067,7 +2067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2084,7 +2084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2101,7 +2101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2118,7 +2118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E7F702-F1F4-4392-B5FB-9E5105396C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF20A33-3F84-42BB-8D52-B4979534B88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
   <si>
     <t>Year</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Rita Levi-Montalcini</t>
   </si>
 </sst>
 </file>
@@ -979,13 +982,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1923,6 +1926,27 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>2024</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -1935,7 +1959,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G5 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
+  <conditionalFormatting sqref="G5 G7 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1952,7 +1976,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G4 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
+  <conditionalFormatting sqref="G4 G6 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2117,12 +2141,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G37:G38">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G37:G38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2145,7 +2169,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF20A33-3F84-42BB-8D52-B4979534B88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809ED841-2925-4A22-B68B-F91812DF8CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -988,7 +988,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1139,7 +1139,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1164,7 +1164,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1571,7 +1571,7 @@
         <v>35</v>
       </c>
       <c r="G23" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1959,7 +1959,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G7 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
+  <conditionalFormatting sqref="G7 G5 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1976,7 +1976,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
+  <conditionalFormatting sqref="G6 G4 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809ED841-2925-4A22-B68B-F91812DF8CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC4618E-ED63-432E-9032-53E4CDD56660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -988,7 +988,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1944,7 +1944,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1959,7 +1959,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G5 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
+  <conditionalFormatting sqref="G5 G7 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1976,7 +1976,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G4 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
+  <conditionalFormatting sqref="G4 G6 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC4618E-ED63-432E-9032-53E4CDD56660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC742C1-C41C-45D3-B64E-9CAA820B1D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="83">
   <si>
     <t>Year</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>Rita Levi-Montalcini</t>
+  </si>
+  <si>
+    <t>Amerigo Vespucci World Tour 2023-2025</t>
+  </si>
+  <si>
+    <t>Holy Year 2025</t>
   </si>
 </sst>
 </file>
@@ -584,7 +590,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -711,9 +725,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -982,13 +996,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1947,6 +1961,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>2025</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>2025</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -1955,11 +2011,28 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G5 G7 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G5 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4 G6 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
     <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G7 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G4 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1971,12 +2044,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
+  <conditionalFormatting sqref="G29">
     <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1988,13 +2061,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="G31">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2005,12 +2078,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="G30">
     <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2022,12 +2095,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="G33">
     <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2039,12 +2112,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G32">
     <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2056,12 +2129,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G34">
     <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2073,12 +2146,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+  <conditionalFormatting sqref="G36">
     <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2090,12 +2163,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
+  <conditionalFormatting sqref="G35">
     <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2107,12 +2180,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G3">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2124,13 +2197,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="G37:G38">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:G38">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2141,12 +2214,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:G38">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37:G38">
+  <conditionalFormatting sqref="G39:G40">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G40">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC742C1-C41C-45D3-B64E-9CAA820B1D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5955231-F4EA-4D34-880D-30085F2EB5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -298,9 +301,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Holy Year 2025</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -575,6 +578,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,14 +598,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -607,6 +605,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -725,9 +731,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1002,33 +1008,31 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="5" width="25.90625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="12" customWidth="1"/>
     <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1038,16 +1042,18 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -1141,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>60</v>
@@ -1193,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>60</v>
@@ -1293,7 +1299,7 @@
         <v>2012</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>6</v>
@@ -1498,7 +1504,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>60</v>
@@ -1850,7 +1856,7 @@
         <v>67</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>60</v>
@@ -1945,7 +1951,7 @@
         <v>2024</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22" t="s">
@@ -1966,7 +1972,7 @@
         <v>2025</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="22" t="s">
@@ -1987,7 +1993,7 @@
         <v>2025</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="22" t="s">
@@ -2004,9 +2010,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2015,7 +2021,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G5 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
+  <conditionalFormatting sqref="G5 G7 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2032,7 +2038,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G4 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
+  <conditionalFormatting sqref="G4 G6 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2215,7 +2221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:G40">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Italy/#EURO#Italy#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5955231-F4EA-4D34-880D-30085F2EB5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC72578-BD2F-4828-834C-000F9929E7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1008,7 +1008,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1985,7 +1985,7 @@
         <v>36</v>
       </c>
       <c r="G39" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2021,7 +2021,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G7 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
+  <conditionalFormatting sqref="G7 G5 G9 G11:G12 G15 G17 G19 G22:G23 G25 G27">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2038,7 +2038,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
+  <conditionalFormatting sqref="G6 G4 G8 G10 G13:G14 G16 G18 G20:G21 G24 G26 G28">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
